--- a/Generated_Responses.xlsx
+++ b/Generated_Responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Society</t>
   </si>
@@ -22,64 +22,127 @@
     <t>What is the membership count for society_name? Respond with one word (number) only. That should just be an integer nothing like approx or members just a number.</t>
   </si>
   <si>
-    <t>"Does society_name encompasses community sites? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Is society_name influential on state or local policy? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Does society_name provide engagement opportunity with leadership? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Does society_name provide support for clinical trial recruitment? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Does society_name provide engagement opportunity with payors? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Does society_name include area experts on its board? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Is society_name involved in therapeutic research collaborations? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.",</t>
-  </si>
-  <si>
-    <t>"Does society_name include top therapeutic area experts on its board? Respond with one word ('yes' or 'no') only plus provide a justification for the answer also after a comma."</t>
-  </si>
-  <si>
-    <t>"Name the Region where the society_name is from? Just name the US state or the Region in one word for the answer."</t>
+    <t>Does society_name encompasses community sites? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Is society_name influential on state or local policy? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Does society_name provide engagement opportunity with leadership? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Does society_name provide support for clinical trial recruitment? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Does society_name provide engagement opportunity with payors? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Does society_name include area experts on its board? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Is society_name involved in therapeutic research collaborations? Respond one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Does society_name include top therapeutic area experts on its board? Respond with one word ('yes' or 'no') only plus provide a justification for the answer also after a comma.</t>
+  </si>
+  <si>
+    <t>Name the Region where the society_name is from? Just name the US state or the Region in one word for the answer.</t>
   </si>
   <si>
     <t>Soleo Health</t>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy focused on providing IV and injectable medications directly to patients' homes, rather than operating community sites for public engagement or support.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is not influential on state or local policy. The society is primarily focused on providing healthcare services rather than engaging in policy advocacy or lobbying.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunity with leadership. The company focuses more on patient care and healthcare services rather than direct engagement with leadership.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health, the society named, does not provide support for clinical trial recruitment. Soleo Health focuses on specialty infusion services rather than clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunity with payors. Soleo Health is a specialty infusion provider focusing on patient care services and does not actively engage with payors for business purposes.</t>
-  </si>
-  <si>
-    <t>Yes, Soleo Health does include area experts on its board. Having area experts on the board brings diverse perspectives and specialized knowledge to the organization's decision-making processes.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is not involved in therapeutic research collaborations. Soleo Health is a specialty pharmacy focused on providing high-quality infusion therapy services rather than engaging in research collaborations.</t>
-  </si>
-  <si>
-    <t>No, justification: Soleo Health does not include top therapeutic area experts on its board.</t>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>Dava Oncology, LP</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy and infusion services provider, focusing on clinical expertise and patient care rather than community-driven initiatives.</t>
+  </si>
+  <si>
+    <t>Yes, University of Miami encompasses community sites. The university is an integral part of the local community and engages with various community initiatives and programs.</t>
+  </si>
+  <si>
+    <t>No, justification: Oncology-focused society focusing on medical professionals and researchers, not community sites.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is primarily focused on healthcare services and does not typically engage in policy advocacy or influence at the state or local level.</t>
+  </si>
+  <si>
+    <t>No, The University of Miami is not influential on state or local policy. The university focuses more on education and research rather than policy advocacy.</t>
+  </si>
+  <si>
+    <t>No, Dava Oncology, LP is not influential on state or local policy. Dava Oncology, LP is a private healthcare company focused on providing oncology products and services, and typically does not have direct influence on state or local policy decisions.</t>
+  </si>
+  <si>
+    <t>Yes, Soleo Health provides engagement opportunity with leadership. Soleo Health encourages collaboration between leadership and employees, offering opportunities for interaction and involvement in decision-making processes.</t>
+  </si>
+  <si>
+    <t>yes, The University of Miami provides engagement opportunities with leadership through various campus leadership programs, student organizations, and workshops, allowing students to develop their leadership skills and engage with leaders in different fields.</t>
+  </si>
+  <si>
+    <t>No, justification: Dava Oncology, LP does not provide public information about engagement opportunities with their leadership.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health specializes in specialty infusion services, not clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, The University of Miami does not support clinical trial recruitment. The institution focuses more on conducting research and trials rather than recruiting participants.</t>
+  </si>
+  <si>
+    <t>No, Dava Oncology, LP does not provide support for clinical trial recruitment. Justification: Dava Oncology, LP is a pharmaceutical company that focuses on oncology medications rather than clinical trial recruitment services.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunities with payors. They focus on providing specialty infusion services.</t>
+  </si>
+  <si>
+    <t>No, the University of Miami does not provide engagement opportunity with payors. The society primarily focuses on academic research and student programs.</t>
+  </si>
+  <si>
+    <t>No, Dava Oncology, LP does not provide engagement opportunity with payors. Justification: Specializes in pharmaceutical industry.</t>
+  </si>
+  <si>
+    <t>No, justification: Soleo Health does not publicly disclose information about area experts on its board.</t>
+  </si>
+  <si>
+    <t>No, the University of Miami society does not have area experts on its board. The board primarily consists of university administrators, faculty members, and external community leaders.</t>
+  </si>
+  <si>
+    <t>No, no area experts on the board. Dava Oncology, LP primarily focuses on oncology expertise.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is not involved in therapeutic research collaborations. Soleo Health focuses on providing specialty pharmacy and infusion services to patients.</t>
+  </si>
+  <si>
+    <t>No, there is no available information indicating that the society 'University of Miami' is involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, Dava Oncology, LP is involved in therapeutic research collaborations. Dava Oncology, LP often collaborates with other organizations to advance oncology research and develop new therapies.</t>
+  </si>
+  <si>
+    <t>No, justification: The information about specific board members of Soleo Health is not publicly available to confirm if top therapeutic area experts are included.</t>
+  </si>
+  <si>
+    <t>No, the University of Miami does not include top therapeutic area experts on its board. The board of directors typically consists of individuals with expertise in various fields like education, business, and governance, rather than focusing solely on therapeutic areas.</t>
+  </si>
+  <si>
+    <t>No, Dava Oncology, LP does not include top therapeutic area experts on its board. , There is no public information available to suggest that top therapeutic area experts are part of the board of Dava Oncology, LP.</t>
   </si>
   <si>
     <t>Texas</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
 </sst>
 </file>
@@ -437,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,34 +546,104 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Generated_Responses.xlsx
+++ b/Generated_Responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Society</t>
   </si>
@@ -58,91 +58,94 @@
     <t>Dava Oncology, LP</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy and infusion services provider, focusing on clinical expertise and patient care rather than community-driven initiatives.</t>
-  </si>
-  <si>
-    <t>Yes, University of Miami encompasses community sites. The university is an integral part of the local community and engages with various community initiatives and programs.</t>
-  </si>
-  <si>
-    <t>No, justification: Oncology-focused society focusing on medical professionals and researchers, not community sites.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is primarily focused on healthcare services and does not typically engage in policy advocacy or influence at the state or local level.</t>
-  </si>
-  <si>
-    <t>No, The University of Miami is not influential on state or local policy. The university focuses more on education and research rather than policy advocacy.</t>
-  </si>
-  <si>
-    <t>No, Dava Oncology, LP is not influential on state or local policy. Dava Oncology, LP is a private healthcare company focused on providing oncology products and services, and typically does not have direct influence on state or local policy decisions.</t>
-  </si>
-  <si>
-    <t>Yes, Soleo Health provides engagement opportunity with leadership. Soleo Health encourages collaboration between leadership and employees, offering opportunities for interaction and involvement in decision-making processes.</t>
-  </si>
-  <si>
-    <t>yes, The University of Miami provides engagement opportunities with leadership through various campus leadership programs, student organizations, and workshops, allowing students to develop their leadership skills and engage with leaders in different fields.</t>
-  </si>
-  <si>
-    <t>No, justification: Dava Oncology, LP does not provide public information about engagement opportunities with their leadership.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health specializes in specialty infusion services, not clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, The University of Miami does not support clinical trial recruitment. The institution focuses more on conducting research and trials rather than recruiting participants.</t>
-  </si>
-  <si>
-    <t>No, Dava Oncology, LP does not provide support for clinical trial recruitment. Justification: Dava Oncology, LP is a pharmaceutical company that focuses on oncology medications rather than clinical trial recruitment services.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunities with payors. They focus on providing specialty infusion services.</t>
-  </si>
-  <si>
-    <t>No, the University of Miami does not provide engagement opportunity with payors. The society primarily focuses on academic research and student programs.</t>
-  </si>
-  <si>
-    <t>No, Dava Oncology, LP does not provide engagement opportunity with payors. Justification: Specializes in pharmaceutical industry.</t>
-  </si>
-  <si>
-    <t>No, justification: Soleo Health does not publicly disclose information about area experts on its board.</t>
-  </si>
-  <si>
-    <t>No, the University of Miami society does not have area experts on its board. The board primarily consists of university administrators, faculty members, and external community leaders.</t>
-  </si>
-  <si>
-    <t>No, no area experts on the board. Dava Oncology, LP primarily focuses on oncology expertise.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is not involved in therapeutic research collaborations. Soleo Health focuses on providing specialty pharmacy and infusion services to patients.</t>
-  </si>
-  <si>
-    <t>No, there is no available information indicating that the society 'University of Miami' is involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, Dava Oncology, LP is involved in therapeutic research collaborations. Dava Oncology, LP often collaborates with other organizations to advance oncology research and develop new therapies.</t>
-  </si>
-  <si>
-    <t>No, justification: The information about specific board members of Soleo Health is not publicly available to confirm if top therapeutic area experts are included.</t>
-  </si>
-  <si>
-    <t>No, the University of Miami does not include top therapeutic area experts on its board. The board of directors typically consists of individuals with expertise in various fields like education, business, and governance, rather than focusing solely on therapeutic areas.</t>
-  </si>
-  <si>
-    <t>No, Dava Oncology, LP does not include top therapeutic area experts on its board. , There is no public information available to suggest that top therapeutic area experts are part of the board of Dava Oncology, LP.</t>
+    <t>500</t>
+  </si>
+  <si>
+    <t>25,000</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy that primarily focuses on providing infusion therapy services rather than community-based healthcare.</t>
+  </si>
+  <si>
+    <t>No, the University of Miami society does not encompass community sites. Justification: It is primarily an educational institution.</t>
+  </si>
+  <si>
+    <t>no, Dava Oncology, LP is a limited partnership and not a society.</t>
+  </si>
+  <si>
+    <t>Yes, Soleo Health is influential on state and local policy. The company's size, scope of operations, and advocacy efforts within the healthcare sector contribute to its influence on policy decisions.</t>
+  </si>
+  <si>
+    <t>No, lack of direct evidence.</t>
+  </si>
+  <si>
+    <t>No, Dava Oncology, LP is not influential on state or local policy. The company is primarily focused on developing pharmaceuticals and hence does not have direct influence on policy decisions.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunity with leadership. The company does not explicitly mention any leadership engagement initiatives for its society members.</t>
+  </si>
+  <si>
+    <t>Yes, The University of Miami provides engagement opportunities with leadership through various student organizations, leadership programs, and mentorship initiatives.</t>
+  </si>
+  <si>
+    <t>no, There is no direct evidence of leadership engagement opportunities provided by 'Dava Oncology, LP'.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health primarily focuses on home infusion services and specialty pharmacy support.</t>
+  </si>
+  <si>
+    <t>Yes, justification: university's research focus.</t>
+  </si>
+  <si>
+    <t>yes, Dava Oncology, LP provides support for clinical trial recruitment. Dava Oncology, LP is known for its expertise in oncology clinical trial recruitment and provides dedicated services to support various clinical trials.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunity with payors. Soleo Health is a specialty infusion services provider focusing on patient care rather than engaging directly with payors.</t>
+  </si>
+  <si>
+    <t>No, the University of Miami does not provide engagement opportunities with payors. This is because the primary focus of the university is on education and research, rather than engaging with payors for financial transactions.</t>
+  </si>
+  <si>
+    <t>No, Dava Oncology, LP does not provide engagement opportunities with payors. The reason is that it is a limited partnership and its structure may not involve direct engagement with payors.</t>
+  </si>
+  <si>
+    <t>Yes, Soleo Health includes area experts on its board. Area experts bring specialized knowledge and experience that can greatly benefit the organization in making informed decisions and strategic moves.</t>
+  </si>
+  <si>
+    <t>No, justification: The University of Miami does not have area experts on its board.</t>
+  </si>
+  <si>
+    <t>Yes, ,Dava Oncology, LP includes area experts on its board.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is not involved in therapeutic research collaborations. Justification: Soleo Health predominantly focuses on specialty infusion services rather than research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, University of Miami is involved in therapeutic research collaborations. The institution has robust partnerships with various organizations for advancing healthcare research and innovation.</t>
+  </si>
+  <si>
+    <t>No, as of our latest information, Dava Oncology, LP is not involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, as per the publicly available information, Soleo Health does not include top therapeutic area experts on its board.</t>
+  </si>
+  <si>
+    <t>No, the University of Miami does not include top therapeutic area experts on its board. The university's board typically consists of members with expertise in education, business, law, and various other fields related to university administration.</t>
+  </si>
+  <si>
+    <t>No, as per available information, Dava Oncology, LP does not include top therapeutic area experts on its board.</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>The society "Dava Oncology, LP" is based in Texas.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Generated_Responses.xlsx
+++ b/Generated_Responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Society</t>
   </si>
@@ -49,103 +49,43 @@
     <t>Name the Region where the society_name is from? Just name the US state or the Region in one word for the answer.</t>
   </si>
   <si>
+    <t>Last Updated</t>
+  </si>
+  <si>
     <t>Soleo Health</t>
   </si>
   <si>
-    <t>University of Miami</t>
-  </si>
-  <si>
-    <t>Dava Oncology, LP</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>25,000</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy that primarily focuses on providing infusion therapy services rather than community-based healthcare.</t>
-  </si>
-  <si>
-    <t>No, the University of Miami society does not encompass community sites. Justification: It is primarily an educational institution.</t>
-  </si>
-  <si>
-    <t>no, Dava Oncology, LP is a limited partnership and not a society.</t>
-  </si>
-  <si>
-    <t>Yes, Soleo Health is influential on state and local policy. The company's size, scope of operations, and advocacy efforts within the healthcare sector contribute to its influence on policy decisions.</t>
-  </si>
-  <si>
-    <t>No, lack of direct evidence.</t>
-  </si>
-  <si>
-    <t>No, Dava Oncology, LP is not influential on state or local policy. The company is primarily focused on developing pharmaceuticals and hence does not have direct influence on policy decisions.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunity with leadership. The company does not explicitly mention any leadership engagement initiatives for its society members.</t>
-  </si>
-  <si>
-    <t>Yes, The University of Miami provides engagement opportunities with leadership through various student organizations, leadership programs, and mentorship initiatives.</t>
-  </si>
-  <si>
-    <t>no, There is no direct evidence of leadership engagement opportunities provided by 'Dava Oncology, LP'.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health primarily focuses on home infusion services and specialty pharmacy support.</t>
-  </si>
-  <si>
-    <t>Yes, justification: university's research focus.</t>
-  </si>
-  <si>
-    <t>yes, Dava Oncology, LP provides support for clinical trial recruitment. Dava Oncology, LP is known for its expertise in oncology clinical trial recruitment and provides dedicated services to support various clinical trials.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunity with payors. Soleo Health is a specialty infusion services provider focusing on patient care rather than engaging directly with payors.</t>
-  </si>
-  <si>
-    <t>No, the University of Miami does not provide engagement opportunities with payors. This is because the primary focus of the university is on education and research, rather than engaging with payors for financial transactions.</t>
-  </si>
-  <si>
-    <t>No, Dava Oncology, LP does not provide engagement opportunities with payors. The reason is that it is a limited partnership and its structure may not involve direct engagement with payors.</t>
-  </si>
-  <si>
-    <t>Yes, Soleo Health includes area experts on its board. Area experts bring specialized knowledge and experience that can greatly benefit the organization in making informed decisions and strategic moves.</t>
-  </si>
-  <si>
-    <t>No, justification: The University of Miami does not have area experts on its board.</t>
-  </si>
-  <si>
-    <t>Yes, ,Dava Oncology, LP includes area experts on its board.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is not involved in therapeutic research collaborations. Justification: Soleo Health predominantly focuses on specialty infusion services rather than research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, University of Miami is involved in therapeutic research collaborations. The institution has robust partnerships with various organizations for advancing healthcare research and innovation.</t>
-  </si>
-  <si>
-    <t>No, as of our latest information, Dava Oncology, LP is not involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>No, as per the publicly available information, Soleo Health does not include top therapeutic area experts on its board.</t>
-  </si>
-  <si>
-    <t>No, the University of Miami does not include top therapeutic area experts on its board. The university's board typically consists of members with expertise in education, business, law, and various other fields related to university administration.</t>
-  </si>
-  <si>
-    <t>No, as per available information, Dava Oncology, LP does not include top therapeutic area experts on its board.</t>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy and infusion services provider focused on patient care in the home setting, rather than community sites.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is not influential on state or local policy. Soleo Health operates as a healthcare provider, focusing on specialty infusion services rather than advocacy or policy-making activities.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health, The organization does not provide engagement opportunities with leadership. The company may lack transparency or structured programs to facilitate interactions with its leadership team.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health focuses on specialty infusion services for patients.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engaging opportunities with payors. Payor engagement is not a prominent focus for Soleo Health.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not include area experts on its board. The company primarily focuses on providing specialty infusion services and healthcare solutions rather than having industry-specific experts on its board of directors.</t>
+  </si>
+  <si>
+    <t>no, There is no public information available on therapeutic research collaborations involving Soleo Health.</t>
+  </si>
+  <si>
+    <t>No, justification: There is no public information available on the composition of Soleo Health's board to confirm if it includes top therapeutic area experts.</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>The society "Dava Oncology, LP" is based in Texas.</t>
+    <t>2025-03-12 12:46:35</t>
   </si>
 </sst>
 </file>
@@ -503,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,110 +483,46 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Generated_Responses.xlsx
+++ b/Generated_Responses.xlsx
@@ -55,37 +55,37 @@
     <t>Soleo Health</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty pharmacy and infusion services provider focused on patient care in the home setting, rather than community sites.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is not influential on state or local policy. Soleo Health operates as a healthcare provider, focusing on specialty infusion services rather than advocacy or policy-making activities.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health, The organization does not provide engagement opportunities with leadership. The company may lack transparency or structured programs to facilitate interactions with its leadership team.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health focuses on specialty infusion services for patients.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engaging opportunities with payors. Payor engagement is not a prominent focus for Soleo Health.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not include area experts on its board. The company primarily focuses on providing specialty infusion services and healthcare solutions rather than having industry-specific experts on its board of directors.</t>
-  </si>
-  <si>
-    <t>no, There is no public information available on therapeutic research collaborations involving Soleo Health.</t>
-  </si>
-  <si>
-    <t>No, justification: There is no public information available on the composition of Soleo Health's board to confirm if it includes top therapeutic area experts.</t>
+    <t>253</t>
+  </si>
+  <si>
+    <t>Yes, community sites are community-based physical locations where services and resources are provided to fulfill the needs of the society members.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is a healthcare provider company focused on providing specialty infusion services, and it does not engage in lobbying or advocacy efforts to influence state or local policies.</t>
+  </si>
+  <si>
+    <t>No, ,soleo Health does not provide engagement opportunity with leadership.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health is a specialty pharmacy focusing on complex disease management and medication therapies.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunity with payors. Soleo Health primarily focuses on providing specialty pharmacy and infusion services to patients, rather than direct engagement with payors.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not include area experts on its board., The composition of the board does not indicate the presence of area experts specializing in specific fields.</t>
+  </si>
+  <si>
+    <t>Yes, Soleo Health is involved in therapeutic research collaborations. Soleo Health partners with various stakeholders in the healthcare industry to advance research and development in therapeutic treatments.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not include top therapeutic area experts on its board. There is no public information available to indicate otherwise.</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>2025-03-12 12:46:35</t>
+    <t>2025-03-12 08:14:33</t>
   </si>
 </sst>
 </file>

--- a/Generated_Responses.xlsx
+++ b/Generated_Responses.xlsx
@@ -55,37 +55,38 @@
     <t>Soleo Health</t>
   </si>
   <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>Yes, community sites are community-based physical locations where services and resources are provided to fulfill the needs of the society members.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is a healthcare provider company focused on providing specialty infusion services, and it does not engage in lobbying or advocacy efforts to influence state or local policies.</t>
-  </si>
-  <si>
-    <t>No, ,soleo Health does not provide engagement opportunity with leadership.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health is a specialty pharmacy focusing on complex disease management and medication therapies.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunity with payors. Soleo Health primarily focuses on providing specialty pharmacy and infusion services to patients, rather than direct engagement with payors.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not include area experts on its board., The composition of the board does not indicate the presence of area experts specializing in specific fields.</t>
-  </si>
-  <si>
-    <t>Yes, Soleo Health is involved in therapeutic research collaborations. Soleo Health partners with various stakeholders in the healthcare industry to advance research and development in therapeutic treatments.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not include top therapeutic area experts on its board. There is no public information available to indicate otherwise.</t>
+    <t>1,500</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not encompass community sites.
+Justification: Soleo Health is a specialty pharmacy that focuses on providing infusion therapy services and support to patients outside of the traditional healthcare setting.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is not influential on state or local policy. This society primarily focuses on healthcare services rather than policy advocacy.</t>
+  </si>
+  <si>
+    <t>Yes, Soleo Health provides engagement opportunities with leadership. The society offers various channels for members to interact and engage with its leadership team, fostering a sense of community and transparency.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health is a specialty pharmacy that focuses on providing infusion therapies and nursing services, not on conducting clinical trials.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunities with payors. Soleo Health is focused on providing specialty pharmacy and infusion services rather than directly engaging with payors.</t>
+  </si>
+  <si>
+    <t>No, there is no information available about area experts on the board of Soleo Health.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health, as a specialty pharmacy, focuses on providing care and services related to the delivery of medications for complex and chronic conditions, rather than being directly involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not include top therapeutic area experts on its board. Soleo Health focuses on providing innovative specialty pharmacy and infusion services.</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>2025-03-12 08:14:33</t>
+    <t>2025-03-13 09:14:18</t>
   </si>
 </sst>
 </file>

--- a/Generated_Responses.xlsx
+++ b/Generated_Responses.xlsx
@@ -55,38 +55,37 @@
     <t>Soleo Health</t>
   </si>
   <si>
-    <t>1,500</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not encompass community sites.
-Justification: Soleo Health is a specialty pharmacy that focuses on providing infusion therapy services and support to patients outside of the traditional healthcare setting.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health is not influential on state or local policy. This society primarily focuses on healthcare services rather than policy advocacy.</t>
-  </si>
-  <si>
-    <t>Yes, Soleo Health provides engagement opportunities with leadership. The society offers various channels for members to interact and engage with its leadership team, fostering a sense of community and transparency.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health is a specialty pharmacy that focuses on providing infusion therapies and nursing services, not on conducting clinical trials.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not provide engagement opportunities with payors. Soleo Health is focused on providing specialty pharmacy and infusion services rather than directly engaging with payors.</t>
-  </si>
-  <si>
-    <t>No, there is no information available about area experts on the board of Soleo Health.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health, as a specialty pharmacy, focuses on providing care and services related to the delivery of medications for complex and chronic conditions, rather than being directly involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>No, Soleo Health does not include top therapeutic area experts on its board. Soleo Health focuses on providing innovative specialty pharmacy and infusion services.</t>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not encompass community sites. Soleo Health is a specialty infusion pharmacy that focuses on providing complex pharmaceutical care in the home or at an alternate site of care, rather than community-based services.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is not influential on state or local policy. The society's primary focus is on providing healthcare services, rather than lobbying or advocacy efforts that influence policy decisions.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunity with leadership. The company's leadership may not have a direct engagement opportunity with the society's members.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide support for clinical trial recruitment. Soleo Health is a specialty pharmacy that focuses on providing infusion therapy services rather than clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health does not provide engagement opportunities with payors. They primarily focus on providing specialized pharmacy services to patients.</t>
+  </si>
+  <si>
+    <t>No, justification: Not specified in public information.</t>
+  </si>
+  <si>
+    <t>No, Soleo Health is not involved in therapeutic research collaborations. Soleo Health primarily focuses on providing home and alternate-site infusion services to patients.</t>
+  </si>
+  <si>
+    <t>No, justification: Soleo Health does not publicly disclose information on the expertise of its board members.</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>2025-03-13 09:14:18</t>
+    <t>2025-03-17 06:56:33</t>
   </si>
 </sst>
 </file>
